--- a/AutomationUIAPI/src/test/resources/XLS/Automation_Run_Report.xlsx
+++ b/AutomationUIAPI/src/test/resources/XLS/Automation_Run_Report.xlsx
@@ -3,26 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIG_BACKUP\MyWorkSpace\workspace\Automation_API\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raghu\MyWorkspace\Workspace\Automation\AutomationUIAPI\src\test\resources\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="5880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="5880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Steps" sheetId="15" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="14" r:id="rId2"/>
     <sheet name="Cropsnap" sheetId="1" r:id="rId3"/>
     <sheet name="Cropsnap_TestResult" sheetId="12" r:id="rId4"/>
+    <sheet name="Cropsnap (2)" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="133">
   <si>
     <t>Status</t>
   </si>
@@ -280,9 +281,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Skip</t>
   </si>
   <si>
     <t/>
@@ -318,49 +316,7 @@
  Response Code: 200</t>
   </si>
   <si>
-    <t>http://10.146.217.20:3030
-&lt;?r&gt;/api/v1/device</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;b&gt;Request Headers:&lt;/b&gt;
- Content-Type : application/json</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;b&gt;Expected Criteria&lt;/b&gt; 
- Status Code :200.0</t>
-  </si>
-  <si>
-    <t>D:\MIG_BACKUP\MyWorkSpace\workspace\Automation_API\src\test\resources\Response\TC10.json</t>
-  </si>
-  <si>
     <t>FuRag1123</t>
-  </si>
-  <si>
-    <t>http://10.146.217.20:3030
-&lt;?r&gt;/api/v1/AddDevice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;b&gt;Request Headers:&lt;/b&gt;
- Content-Type : application/json
- &lt;b&gt;Request Parameters:&lt;/b&gt; 
- description : ToWaterflow
- manufacturer : Sony
- type : Flowmeter
- model : Galaxy
- devicename : FuRag1123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;b&gt;Expected Criteria&lt;/b&gt; 
- Status Code :200.0
- Expected Key Values :
- data.description : ToWaterflow
- data.manufacturer : Sony
- data.type : Flowmeter
- data.model : Galaxy
- data.devicename : FuRag1123</t>
-  </si>
-  <si>
-    <t>D:\MIG_BACKUP\MyWorkSpace\workspace\Automation_API\src\test\resources\Response\TC11.json</t>
   </si>
   <si>
     <t>file:/D:/MIG_BACKUP/MyWorkSpace/workspace/Automation_API/src/test/resources/Response/TC10.json</t>
@@ -384,53 +340,7 @@
 </t>
   </si>
   <si>
-    <t>http://10.146.217.20:3030
-&lt;?r&gt;/api/v1/device/FuRag1123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;b&gt;Expected Criteria&lt;/b&gt; 
- Status Code :200.0
- Expected Key Values :
- devicename[0] : FM102274
- description[0] : Toflowcontrol
- model[0] : 5AB78-TR-9
- type[0] : Flowmeter
- manufacturer[0] : Smech</t>
-  </si>
-  <si>
-    <t>D:\MIG_BACKUP\MyWorkSpace\workspace\Automation_API\src\test\resources\Response\TC12.json</t>
-  </si>
-  <si>
     <t>file:/D:/MIG_BACKUP/MyWorkSpace/workspace/Automation_API/src/test/resources/Response/TC13.json</t>
-  </si>
-  <si>
-    <t>http://10.146.217.20:3030
-&lt;?r&gt;/api/v1/device/</t>
-  </si>
-  <si>
-    <t>D:\MIG_BACKUP\MyWorkSpace\workspace\Automation_API\src\test\resources\Response\TC13.json</t>
-  </si>
-  <si>
-    <t>http://10.146.217.20:3030
-&lt;?r&gt;/api/v1/device/Ref not Found</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;b&gt;Request Headers:&lt;/b&gt;
- Content-Type : application/json
- &lt;b&gt;Request Parameters:&lt;/b&gt; 
- description : To control water flow
- model : 5AB78-TR-8
- type : Flowmeter
- manufacturer : SunMech</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;b&gt;Expected Criteria&lt;/b&gt; 
- Status Code :200.0
- Expected Key Values :
- message : Device details updated</t>
-  </si>
-  <si>
-    <t>Skipped due to failed status of dependent Test case  : TC12</t>
   </si>
   <si>
     <t>file:/D:/MIG_BACKUP/MyWorkSpace/workspace/Automation_API/src/test/resources/Response/TC15.json</t>
@@ -445,37 +355,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;Expected Criteria&lt;/b&gt; 
- Status Code :200.0
- Expected Key Values :
- description[0] : To control water flow
- model[0] : 5AB78-TR-8
- type[0] : Flowmeter
- manufacturer[0] : SunMech</t>
-  </si>
-  <si>
-    <t>D:\MIG_BACKUP\MyWorkSpace\workspace\Automation_API\src\test\resources\Response\TC15.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;b&gt;Expected Criteria&lt;/b&gt; 
- Status Code :200.0
- Expected Key Values :
- message : Device removed from the account!</t>
-  </si>
-  <si>
     <t>file:/D:/MIG_BACKUP/MyWorkSpace/workspace/Automation_API/src/test/resources/Response/TC17.json</t>
   </si>
   <si>
-    <t>D:\MIG_BACKUP\MyWorkSpace\workspace\Automation_API\src\test\resources\Response\TC17.json</t>
-  </si>
-  <si>
     <t>file:/D:/MIG_BACKUP/MyWorkSpace/workspace/Automation_API/src/test/resources/Response/TC18.json</t>
-  </si>
-  <si>
-    <t>D:\MIG_BACKUP\MyWorkSpace\workspace\Automation_API\src\test\resources\Response\TC18.json</t>
-  </si>
-  <si>
-    <t>598ab8544f30fc15046035ee</t>
   </si>
   <si>
     <t>Runmode</t>
@@ -521,16 +404,7 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>User login failed</t>
-  </si>
-  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>User logged in Successfull but PTE ID not verfidFAIL</t>
-  </si>
-  <si>
-    <t>598ab8544f30fc15046035ee, 598c010f4f30fc15046035ef</t>
   </si>
   <si>
     <t>FuRag1123, FuRag1123</t>
@@ -563,13 +437,15 @@
   </si>
   <si>
     <t>FuRag1123, FuRag1123, FuRag1123</t>
+  </si>
+  <si>
+    <t>http://10.25.146.111:3030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1014,22 +890,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.8828125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.03515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.3671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="47.1171875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.12109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="36.09765625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.34375" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,13 +913,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>14</v>
@@ -1052,62 +928,62 @@
         <v>0</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1126,9 +1002,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,18 +1015,18 @@
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1162,37 +1038,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="42.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="42.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="18.4453125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="48.6328125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="84.9609375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="105.43359375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="61.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="42.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="42.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="51.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="48.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="85" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="105.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="61.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -1246,10 +1124,10 @@
         <v>22</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>12</v>
@@ -1269,7 +1147,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>48</v>
@@ -1309,13 +1187,13 @@
         <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="48" thickBot="1" x14ac:dyDescent="0.3">
@@ -1329,7 +1207,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>49</v>
@@ -1350,19 +1228,19 @@
         <v>69</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P3" s="1">
         <v>200</v>
@@ -1375,13 +1253,13 @@
         <v>21</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="111" thickBot="1" x14ac:dyDescent="0.3">
@@ -1395,7 +1273,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>50</v>
@@ -1436,16 +1314,16 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1459,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>51</v>
@@ -1499,13 +1377,13 @@
         <v>21</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1519,7 +1397,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>52</v>
@@ -1575,7 +1453,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>50</v>
@@ -1616,16 +1494,16 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1639,7 +1517,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>52</v>
@@ -1695,7 +1573,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>51</v>
@@ -1735,13 +1613,13 @@
         <v>21</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1755,7 +1633,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>51</v>
@@ -1795,13 +1673,13 @@
         <v>21</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1863,7 +1741,895 @@
         <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="http://10.146.217.47:3030/api/v1/AddDevice"/>
+    <hyperlink ref="E4" r:id="rId2" location="TC11|Output_Values}" display="http://10.146.217.47:3030/api/v1/device/{ref#TC11|Output_Values}"/>
+    <hyperlink ref="E6" r:id="rId3" location="TC12|Output_Values}" display="http://10.146.217.47:3030/api/v1/device/{ref#TC12|Output_Values}"/>
+    <hyperlink ref="E8" r:id="rId4" location="TC12|Output_Values}" display="http://10.146.217.47:3030/api/v1/device/{ref#TC12|Output_Values}"/>
+    <hyperlink ref="E7" r:id="rId5" location="TC11|Output_Values}" display="http://10.146.217.47:3030/api/v1/device/{ref#TC11|Output_Values}"/>
+    <hyperlink ref="E2" r:id="rId6" display="http://10.146.217.47:3030/api/v1/device"/>
+    <hyperlink ref="E5" r:id="rId7" display="http://10.146.217.47:3030/api/v1/device"/>
+    <hyperlink ref="E9" r:id="rId8" display="http://10.146.217.47:3030/api/v1/device"/>
+    <hyperlink ref="E10" r:id="rId9" display="http://10.146.217.47:3030/api/v1/device"/>
+    <hyperlink ref="E12" r:id="rId10" location="TC11|Output_Values}" display="http://10.146.217.47:3030/api/v1/device/{ref#TC11|Output_Values}"/>
+    <hyperlink ref="D2" r:id="rId11" display="http://10.146.217.20:3030"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="78.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="92.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="61.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W13"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="42.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="42.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="51.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="48.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="85" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="105.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="61.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>77</v>
@@ -1980,349 +2746,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.51171875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.4453125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.65625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.8203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="32.41796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="42.0390625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.4453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="53.67578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="78.3515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="92.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="61.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/AutomationUIAPI/src/test/resources/XLS/Automation_Run_Report.xlsx
+++ b/AutomationUIAPI/src/test/resources/XLS/Automation_Run_Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raghu\MyWorkspace\Workspace\Automation\AutomationUIAPI\src\test\resources\XLS\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="141">
   <si>
     <t>Status</t>
   </si>
@@ -441,11 +441,37 @@
   <si>
     <t>http://10.25.146.111:3030</t>
   </si>
+  <si>
+    <t>TC_0001</t>
+  </si>
+  <si>
+    <t>Login -</t>
+  </si>
+  <si>
+    <t>The login functionality with  user</t>
+  </si>
+  <si>
+    <t>User logged in Successfull</t>
+  </si>
+  <si>
+    <t>TC_Admin0001</t>
+  </si>
+  <si>
+    <t>Login -Admin</t>
+  </si>
+  <si>
+    <t>The login functionality with Admin user</t>
+  </si>
+  <si>
+    <t>The login details are &lt;?r&gt; Username :admin
+ &lt;?r&gt;Pasword: admin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -898,14 +924,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.67578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.01171875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.45703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.90234375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.12109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.234375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.34375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -934,18 +960,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
         <v>119</v>
@@ -954,35 +980,9 @@
         <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1002,9 +1002,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1044,28 +1044,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="42.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="42.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="51.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="48.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="85" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="105.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="61.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="85.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="105.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="61.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1871,17 +1871,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="78.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="92.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="61.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="78.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="92.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="61.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1932,28 +1932,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="42.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="42.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="51.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="48.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="85" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="105.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="61.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="85.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="105.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="61.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/AutomationUIAPI/src/test/resources/XLS/Automation_Run_Report.xlsx
+++ b/AutomationUIAPI/src/test/resources/XLS/Automation_Run_Report.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="144">
   <si>
     <t>Status</t>
   </si>
@@ -465,6 +465,16 @@
   <si>
     <t>The login details are &lt;?r&gt; Username :admin
  &lt;?r&gt;Pasword: admin</t>
+  </si>
+  <si>
+    <t>TC_Admin0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The login details are &lt;?r&gt; Username :
+ &lt;?r&gt;Pasword: </t>
+  </si>
+  <si>
+    <t>TC_Admin0003</t>
   </si>
 </sst>
 </file>
